--- a/Team Table.xlsx
+++ b/Team Table.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -51,8 +51,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -472,18 +472,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
@@ -515,7 +515,9 @@
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
